--- a/arquivos/PowerBI + SQLServer/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
+++ b/arquivos/PowerBI + SQLServer/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5A331-FC61-47AB-AE79-486AEA391A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B1E99-A01E-4ABF-BAD5-8148E9282866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2430" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enunciado" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -223,18 +223,6 @@
   </si>
   <si>
     <t>322</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>ES</t>
   </si>
 </sst>
 </file>
@@ -484,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,71 +480,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,19 +556,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,7 +583,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,8 +1242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7FCA333-B551-437B-A412-71883B200CE9}" name="tb_rh" displayName="tb_rh" ref="A1:K22" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:K22" xr:uid="{224D9726-EF54-4715-ADA0-DD92A3295CD3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7FCA333-B551-437B-A412-71883B200CE9}" name="tb_rh" displayName="tb_rh" ref="A1:K21" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:K21" xr:uid="{224D9726-EF54-4715-ADA0-DD92A3295CD3}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D6EB004E-C6CB-41CE-B27C-468AD535DD4B}" name="ID" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{94896561-5F5F-4037-9471-6CACCA6CC337}" name="NOME" dataDxfId="9"/>
@@ -1280,9 +1262,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1320,9 +1302,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1355,26 +1337,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1407,26 +1372,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1618,52 +1566,52 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="I5" s="45" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="I7" s="33" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1673,29 +1621,29 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="I9" s="33" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="I9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1705,29 +1653,29 @@
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="I11" s="33" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="I11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1737,72 +1685,72 @@
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="33" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="I13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="I15" s="33" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="I15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I18" s="2"/>
@@ -1833,10 +1781,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,77 +1804,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>19</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>43501</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>2000</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="14">
         <v>7</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1944,24 +1892,24 @@
       <c r="F3" s="8">
         <v>8000</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>6</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1979,24 +1927,24 @@
       <c r="F4" s="8">
         <v>7000</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2014,24 +1962,24 @@
       <c r="F5" s="8">
         <v>3588</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2049,24 +1997,24 @@
       <c r="F6" s="8">
         <v>5600</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2084,24 +2032,24 @@
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2119,24 +2067,24 @@
       <c r="F8" s="8">
         <v>1800</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2154,24 +2102,24 @@
       <c r="F9" s="10">
         <v>2500</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2189,24 +2137,24 @@
       <c r="F10" s="10">
         <v>3000</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2224,24 +2172,24 @@
       <c r="F11" s="8">
         <v>3000</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2259,24 +2207,24 @@
       <c r="F12" s="8">
         <v>2300</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>7</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2294,24 +2242,24 @@
       <c r="F13" s="8">
         <v>12000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>5</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="21">
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2329,24 +2277,24 @@
       <c r="F14" s="8">
         <v>15000</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2364,24 +2312,24 @@
       <c r="F15" s="8">
         <v>14000</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="21">
         <v>171</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2399,24 +2347,24 @@
       <c r="F16" s="8">
         <v>8000</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>523</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2434,24 +2382,24 @@
       <c r="F17" s="8">
         <v>1500</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <v>555</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2469,24 +2417,24 @@
       <c r="F18" s="8">
         <v>4500</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>369</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2504,24 +2452,24 @@
       <c r="F19" s="8">
         <v>4000</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2539,24 +2487,24 @@
       <c r="F20" s="8">
         <v>3500</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2574,54 +2522,19 @@
       <c r="F21" s="8">
         <v>4500</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="8">
-        <v>29</v>
-      </c>
-      <c r="D22" s="9">
-        <v>43512</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="8">
-        <v>7000</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="13">
+      <c r="K21" s="12">
         <v>0</v>
       </c>
     </row>

--- a/arquivos/PowerBI + SQLServer/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
+++ b/arquivos/PowerBI + SQLServer/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B1E99-A01E-4ABF-BAD5-8148E9282866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC9DC08-C315-4CC0-B072-76A3B36A843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -59,19 +59,10 @@
     <t>IDADE</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>14/02/2019</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>8000</t>
   </si>
   <si>
     <t>15</t>
@@ -472,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,7 +1561,7 @@
   <sheetData>
     <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -1575,7 +1569,7 @@
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
       <c r="I5" s="43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
@@ -1597,7 +1591,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
       <c r="I7" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
@@ -1605,7 +1599,7 @@
     </row>
     <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -1628,7 +1622,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
       <c r="I9" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
@@ -1660,7 +1654,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
       <c r="I11" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
@@ -1692,7 +1686,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
       <c r="I13" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
@@ -1724,7 +1718,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="39"/>
       <c r="I15" s="31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
@@ -1784,7 +1778,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,28 +1808,28 @@
         <v>9</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1843,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="15">
         <v>19</v>
@@ -1852,7 +1846,7 @@
         <v>43501</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="17">
         <v>2000</v>
@@ -1864,10 +1858,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K2" s="19">
         <v>6</v>
@@ -1878,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="8">
         <v>50</v>
@@ -1887,7 +1881,7 @@
         <v>43502</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="8">
         <v>8000</v>
@@ -1899,10 +1893,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K3" s="12">
         <v>3</v>
@@ -1922,7 +1916,7 @@
         <v>43503</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8">
         <v>7000</v>
@@ -1934,10 +1928,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -1957,7 +1951,7 @@
         <v>43504</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8">
         <v>3588</v>
@@ -1969,10 +1963,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5" s="12">
         <v>2</v>
@@ -1983,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8">
         <v>55</v>
@@ -1992,7 +1986,7 @@
         <v>43505</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8">
         <v>5600</v>
@@ -2004,10 +1998,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K6" s="12">
         <v>2</v>
@@ -2015,34 +2009,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="44">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="44">
+        <v>8000</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7" s="12">
         <v>4</v>
@@ -2053,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8">
         <v>21</v>
@@ -2062,7 +2056,7 @@
         <v>43506</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="8">
         <v>1800</v>
@@ -2074,10 +2068,10 @@
         <v>7</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K8" s="12">
         <v>1</v>
@@ -2088,7 +2082,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="8">
         <v>65</v>
@@ -2097,7 +2091,7 @@
         <v>43507</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="10">
         <v>2500</v>
@@ -2109,10 +2103,10 @@
         <v>7</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K9" s="12">
         <v>1</v>
@@ -2123,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8">
         <v>45</v>
@@ -2132,7 +2126,7 @@
         <v>43508</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" s="10">
         <v>3000</v>
@@ -2144,10 +2138,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K10" s="12">
         <v>1</v>
@@ -2167,7 +2161,7 @@
         <v>43509</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8">
         <v>3000</v>
@@ -2179,10 +2173,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" s="12">
         <v>0</v>
@@ -2202,7 +2196,7 @@
         <v>43538</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8">
         <v>2300</v>
@@ -2214,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K12" s="12">
         <v>0</v>
@@ -2225,10 +2219,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8">
         <v>33</v>
@@ -2237,7 +2231,7 @@
         <v>43510</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" s="8">
         <v>12000</v>
@@ -2249,10 +2243,10 @@
         <v>7</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13" s="12">
         <v>2</v>
@@ -2263,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8">
         <v>26</v>
@@ -2272,7 +2266,7 @@
         <v>43511</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8">
         <v>15000</v>
@@ -2284,10 +2278,10 @@
         <v>7</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14" s="12">
         <v>0</v>
@@ -2298,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8">
         <v>29</v>
@@ -2307,7 +2301,7 @@
         <v>43512</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8">
         <v>14000</v>
@@ -2319,10 +2313,10 @@
         <v>7</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" s="12">
         <v>0</v>
@@ -2333,7 +2327,7 @@
         <v>171</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8">
         <v>26</v>
@@ -2342,7 +2336,7 @@
         <v>43512</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8">
         <v>8000</v>
@@ -2354,10 +2348,10 @@
         <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16" s="12">
         <v>3</v>
@@ -2368,7 +2362,7 @@
         <v>523</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="8">
         <v>21</v>
@@ -2377,7 +2371,7 @@
         <v>43512</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="8">
         <v>1500</v>
@@ -2389,10 +2383,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17" s="12">
         <v>2</v>
@@ -2403,7 +2397,7 @@
         <v>555</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8">
         <v>28</v>
@@ -2412,7 +2406,7 @@
         <v>43512</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F18" s="8">
         <v>4500</v>
@@ -2424,10 +2418,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K18" s="12">
         <v>1</v>
@@ -2438,7 +2432,7 @@
         <v>369</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8">
         <v>29</v>
@@ -2447,7 +2441,7 @@
         <v>43512</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" s="8">
         <v>4000</v>
@@ -2459,10 +2453,10 @@
         <v>6</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K19" s="12">
         <v>1</v>
@@ -2470,10 +2464,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8">
         <v>26</v>
@@ -2482,7 +2476,7 @@
         <v>43512</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="8">
         <v>3500</v>
@@ -2491,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K20" s="12">
         <v>5</v>
@@ -2505,10 +2499,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="8">
         <v>23</v>
@@ -2517,7 +2511,7 @@
         <v>43512</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F21" s="8">
         <v>4500</v>
@@ -2526,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K21" s="12">
         <v>0</v>

--- a/arquivos/PowerBI + SQLServer/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
+++ b/arquivos/PowerBI + SQLServer/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC9DC08-C315-4CC0-B072-76A3B36A843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4F911-7AC7-42A4-BE6B-A12240FC0C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enunciado" sheetId="8" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,9 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1778,7 +1775,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1840,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="16">
-        <v>43501</v>
+        <v>43136</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>29</v>
@@ -2014,7 +2011,7 @@
       <c r="B7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="8">
         <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2023,10 +2020,10 @@
       <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="8">
         <v>8000</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7" s="13" t="s">

--- a/arquivos/PowerBI + SQLServer/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
+++ b/arquivos/PowerBI + SQLServer/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4F911-7AC7-42A4-BE6B-A12240FC0C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19B1516-63B1-465E-9F9E-D16ECD9B53EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19395" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enunciado" sheetId="8" r:id="rId1"/>
@@ -1775,7 +1775,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
